--- a/liens.xlsx
+++ b/liens.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\542879\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC161E0-A06B-4F29-A10C-6367173F7756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Feuille 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>TEST</t>
   </si>
@@ -65,36 +74,58 @@
   </si>
   <si>
     <t>https://exemple.com</t>
+  </si>
+  <si>
+    <t>dff</t>
+  </si>
+  <si>
+    <t>dfsfdsfsd</t>
+  </si>
+  <si>
+    <t>https://youtube.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
-    <font>
-      <sz val="10.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -102,45 +133,49 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -330,25 +365,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="23.75"/>
-    <col customWidth="1" min="3" max="3" width="24.63"/>
-    <col customWidth="1" min="4" max="4" width="54.25"/>
+    <col min="2" max="2" width="23.77734375" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="54.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -362,7 +402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -376,7 +416,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -390,7 +430,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -404,7 +444,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -415,7 +455,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -429,15 +469,30 @@
         <v>17</v>
       </c>
     </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D1"/>
-    <hyperlink r:id="rId2" ref="D2"/>
-    <hyperlink r:id="rId3" ref="D3"/>
-    <hyperlink r:id="rId4" ref="D4"/>
-    <hyperlink r:id="rId5" ref="D5"/>
-    <hyperlink r:id="rId6" ref="D6"/>
+    <hyperlink ref="D1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D7" r:id="rId7" xr:uid="{1927C70C-C3C3-4C9D-82DA-F5A5D02C0C3A}"/>
   </hyperlinks>
-  <drawing r:id="rId7"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/liens.xlsx
+++ b/liens.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\542879\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC161E0-A06B-4F29-A10C-6367173F7756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB7FD99-4BD4-4D3A-93C9-2D9CBA715A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1548" yWindow="1548" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>TEST</t>
   </si>
@@ -375,10 +375,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A7" sqref="A7:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -388,7 +388,7 @@
     <col min="4" max="4" width="54.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -402,7 +402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -416,7 +416,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -430,7 +430,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,7 +444,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -455,7 +455,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -480,6 +480,20 @@
         <v>19</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -492,6 +506,7 @@
     <hyperlink ref="D5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="D6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="D7" r:id="rId7" xr:uid="{1927C70C-C3C3-4C9D-82DA-F5A5D02C0C3A}"/>
+    <hyperlink ref="D8" r:id="rId8" xr:uid="{4460FB15-6122-4240-A2D5-3F7C44F1E46B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/liens.xlsx
+++ b/liens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\542879\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB7FD99-4BD4-4D3A-93C9-2D9CBA715A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A76564C-C740-4599-A9B5-1E2B0F58AA73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1548" yWindow="1548" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t>TEST</t>
   </si>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>dd</t>
-  </si>
-  <si>
-    <t>https://exemple.com</t>
   </si>
   <si>
     <t>dff</t>
@@ -378,7 +375,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -465,8 +462,8 @@
       <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>17</v>
+      <c r="D6" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -474,13 +471,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -488,13 +485,13 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/liens.xlsx
+++ b/liens.xlsx
@@ -8,25 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\542879\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A76564C-C740-4599-A9B5-1E2B0F58AA73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6F0CD6-4A13-4AE8-AA12-14629E82CBB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1548" yWindow="1548" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="55380" yWindow="5790" windowWidth="21255" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
-  <si>
-    <t>TEST</t>
-  </si>
-  <si>
-    <t>-Kiabi-</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
   <si>
     <t>Rendez-Vous</t>
   </si>
@@ -34,59 +41,104 @@
     <t>https://viprendezvousfrontprd001.kiabi.fr/rendezvous_admin/</t>
   </si>
   <si>
-    <t>-BackOffice-</t>
-  </si>
-  <si>
     <t>BARCODE generator</t>
   </si>
   <si>
     <t>https://barcode.tec-it.com</t>
   </si>
   <si>
-    <t>-Citrix-</t>
-  </si>
-  <si>
-    <t>OfiMatica Citrix</t>
-  </si>
-  <si>
-    <t>https://vipiisxen02.kiabi.fr/Citrix/KiabiDesktopsWeb/</t>
-  </si>
-  <si>
-    <t>Liens Ressources Humaines :</t>
-  </si>
-  <si>
     <t>K'IAM</t>
   </si>
   <si>
     <t>https://iamuaprod.kiabi.fr/idmdash</t>
   </si>
   <si>
-    <t>Meta 4</t>
-  </si>
-  <si>
-    <t>https://kiabighr.pn.cegid.cloud/index.jsp?langid=3</t>
-  </si>
-  <si>
-    <t>liens fake</t>
-  </si>
-  <si>
-    <t>dd</t>
-  </si>
-  <si>
-    <t>dff</t>
-  </si>
-  <si>
-    <t>dfsfdsfsd</t>
-  </si>
-  <si>
-    <t>https://youtube.com</t>
+    <t>Magasin POD ClientFR</t>
+  </si>
+  <si>
+    <t>3xONEY</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -BackOffice-</t>
+  </si>
+  <si>
+    <t>https://open.oney.fr/#/login</t>
+  </si>
+  <si>
+    <t>Casier Retrait</t>
+  </si>
+  <si>
+    <t>https://fr.packcity.com</t>
+  </si>
+  <si>
+    <t>https://partenaires.cartegeneration.hautsdefrance.fr/</t>
+  </si>
+  <si>
+    <t>Génération Hauts-de-France</t>
+  </si>
+  <si>
+    <t>GlobalBlue</t>
+  </si>
+  <si>
+    <t>https://ic2.globalblue.com</t>
+  </si>
+  <si>
+    <t>PayLater</t>
+  </si>
+  <si>
+    <t>https://portal.klarna.com/</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>https://bo.kiabi.fr:8443/BOE/OpenDocument/opendoc/openDocument.jsp?sIDType=CUID&amp;iDocID=AVVZOUPFcMRDuonx8qxIGoM</t>
+  </si>
+  <si>
+    <t>https://www.verifiance-fnci.fr/Consultation/voiei</t>
+  </si>
+  <si>
+    <t>Vérifiance</t>
+  </si>
+  <si>
+    <t>http://vipsiweb.kiabi.fr/siwebFlexServer/</t>
+  </si>
+  <si>
+    <t>Easyweb</t>
+  </si>
+  <si>
+    <t>Rien pour le moment…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -Encaissement-</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -BackStore-</t>
+  </si>
+  <si>
+    <t>Wordline</t>
+  </si>
+  <si>
+    <t>https://eportal.services.ingenico.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -Technique-</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -Ressources Humaines</t>
+  </si>
+  <si>
+    <t>SRMARTRH</t>
+  </si>
+  <si>
+    <t>https://myapps.kiabi.fr/idp/startSSO.ping?PartnerSpId=smarta090sso&amp;LoginForm=true</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -100,29 +152,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="2">
@@ -144,15 +207,20 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -372,139 +440,207 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="28.33203125" customWidth="1"/>
     <col min="2" max="2" width="23.77734375" customWidth="1"/>
     <col min="3" max="3" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="54.21875" customWidth="1"/>
+    <col min="4" max="4" width="107.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>19</v>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="D6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D7" r:id="rId7" xr:uid="{1927C70C-C3C3-4C9D-82DA-F5A5D02C0C3A}"/>
-    <hyperlink ref="D8" r:id="rId8" xr:uid="{4460FB15-6122-4240-A2D5-3F7C44F1E46B}"/>
+    <hyperlink ref="D7" r:id="rId1" xr:uid="{167ECE54-CAAB-4685-AC8E-2AF94C7601A4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/liens.xlsx
+++ b/liens.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\542879\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6F0CD6-4A13-4AE8-AA12-14629E82CBB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D65C0D-4B17-4757-8FEC-94F94DA2998D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="55380" yWindow="5790" windowWidth="21255" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="54495" yWindow="75" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="43">
   <si>
     <t>Rendez-Vous</t>
   </si>
@@ -47,6 +47,9 @@
     <t>https://barcode.tec-it.com</t>
   </si>
   <si>
+    <t>https://vipiisxen02.kiabi.fr/Citrix/KiabiDesktopsWeb/</t>
+  </si>
+  <si>
     <t>K'IAM</t>
   </si>
   <si>
@@ -132,13 +135,40 @@
   </si>
   <si>
     <t>https://myapps.kiabi.fr/idp/startSSO.ping?PartnerSpId=smarta090sso&amp;LoginForm=true</t>
+  </si>
+  <si>
+    <t>Magasin SCO ClientFR</t>
+  </si>
+  <si>
+    <t>Magasin Citrix ClientFR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -Kiabi-</t>
+  </si>
+  <si>
+    <t>RFID</t>
+  </si>
+  <si>
+    <t>https://kiabi.octoplus.frequentiel.com/OctoplusTracker</t>
+  </si>
+  <si>
+    <t>Yoobic</t>
+  </si>
+  <si>
+    <t>https://app-web.yoobic.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -Citrix-</t>
+  </si>
+  <si>
+    <t>Bureautique Magasin Citrix</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -157,6 +187,18 @@
       <color theme="10"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="10"/>
@@ -209,16 +251,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -440,10 +491,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -455,192 +506,417 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="D16" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="C29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="4" t="s">
+    </row>
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="D32" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+    </row>
+    <row r="34" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+    </row>
+    <row r="35" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+    </row>
+    <row r="36" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+    </row>
+    <row r="37" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D7" r:id="rId1" xr:uid="{167ECE54-CAAB-4685-AC8E-2AF94C7601A4}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{BE6AC910-659B-4997-A11D-270577993D48}"/>
+    <hyperlink ref="D15" r:id="rId3" xr:uid="{0DD60039-664A-4ED2-85D2-3428951918B5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/liens.xlsx
+++ b/liens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\542879\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D65C0D-4B17-4757-8FEC-94F94DA2998D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075CF3C6-1C83-4201-91EB-69C2FB87B6B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="54495" yWindow="75" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="51">
   <si>
     <t>Rendez-Vous</t>
   </si>
@@ -162,13 +162,37 @@
   </si>
   <si>
     <t>Bureautique Magasin Citrix</t>
+  </si>
+  <si>
+    <t>Magasin CL Kstore ClientFR</t>
+  </si>
+  <si>
+    <t>Magasin CLO ClientFR</t>
+  </si>
+  <si>
+    <t>Google Chrome</t>
+  </si>
+  <si>
+    <t>https://google.com</t>
+  </si>
+  <si>
+    <t>Magasin FullWebFR</t>
+  </si>
+  <si>
+    <t>Hypervision</t>
+  </si>
+  <si>
+    <t>microsoft-edge:https://hyperionv11.kiabi.fr/workspace/index.jsp</t>
+  </si>
+  <si>
+    <t>Magasin LSA ClientFR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -189,27 +213,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FFCCCCCC"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FFCE9178"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -251,25 +256,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -491,10 +486,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -506,409 +501,720 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="8"/>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="A12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="8"/>
+      <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="A14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="A15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-    </row>
-    <row r="34" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-    </row>
-    <row r="35" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-    </row>
-    <row r="36" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-    </row>
-    <row r="37" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" s="4"/>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3"/>
+    </row>
+    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/liens.xlsx
+++ b/liens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\542879\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075CF3C6-1C83-4201-91EB-69C2FB87B6B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D232DFE-2505-44DF-9C80-98B4E5E12C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="54495" yWindow="75" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="52">
   <si>
     <t>Rendez-Vous</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>Magasin LSA ClientFR</t>
+  </si>
+  <si>
+    <t>ignore</t>
   </si>
 </sst>
 </file>
@@ -486,10 +489,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -500,7 +503,7 @@
     <col min="4" max="4" width="107.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -514,7 +517,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -526,7 +529,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -538,7 +541,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -549,8 +552,11 @@
       <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -561,7 +567,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -573,7 +579,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -585,7 +591,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -597,7 +603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -608,7 +614,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -619,7 +625,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -631,7 +637,7 @@
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
@@ -645,7 +651,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
@@ -657,7 +663,7 @@
       </c>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
@@ -671,7 +677,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
@@ -682,7 +688,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>34</v>
       </c>
@@ -1088,7 +1094,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>47</v>
       </c>
@@ -1102,7 +1108,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>47</v>
       </c>
@@ -1113,7 +1119,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>47</v>
       </c>
@@ -1124,7 +1130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>47</v>
       </c>
@@ -1135,7 +1141,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>47</v>
       </c>
@@ -1149,7 +1155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>47</v>
       </c>
@@ -1163,7 +1169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>47</v>
       </c>
@@ -1177,7 +1183,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>47</v>
       </c>
@@ -1188,7 +1194,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>47</v>
       </c>
@@ -1198,8 +1204,11 @@
       <c r="D57" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E57" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>50</v>
       </c>
@@ -1210,10 +1219,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
     </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
     </row>
   </sheetData>

--- a/liens.xlsx
+++ b/liens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\542879\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D232DFE-2505-44DF-9C80-98B4E5E12C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A66D5D0-D881-46BF-BB72-D8E4E1E4EF46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="54495" yWindow="75" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="52">
   <si>
     <t>Rendez-Vous</t>
   </si>
@@ -491,8 +491,8 @@
   </sheetPr>
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1094,7 +1094,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>47</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>47</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>47</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>47</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>47</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>47</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>47</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>47</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>47</v>
       </c>
@@ -1204,11 +1204,8 @@
       <c r="D57" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E57" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>50</v>
       </c>
@@ -1219,10 +1216,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
     </row>
-    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
     </row>
   </sheetData>
